--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_2_2.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_2_2.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2032733.589981712</v>
+        <v>-2034731.262994556</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.837800622</v>
+        <v>2264668.83780062</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673431</v>
+        <v>603248.4937673433</v>
       </c>
     </row>
     <row r="9">
@@ -659,7 +659,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>339.5751599451323</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -668,10 +668,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>125.8612289152297</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -704,28 +704,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>24.60645133192851</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -814,7 +814,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -832,13 +832,13 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -862,7 +862,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -874,16 +874,16 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>146.0234081881613</v>
       </c>
       <c r="W4" t="n">
-        <v>190.274559667907</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -899,13 +899,13 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>367.8328453850362</v>
       </c>
       <c r="F5" t="n">
-        <v>177.2393289933042</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
         <v>413.784170020795</v>
@@ -914,7 +914,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,7 +941,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -956,13 +956,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1072,10 +1072,10 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>83.58354151325329</v>
+        <v>110.92720347361</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1105,16 +1105,16 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1133,25 +1133,25 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>273.0874882044321</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,13 +1178,13 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>35.13818422962495</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1193,13 +1193,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1291,7 +1291,7 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -1309,7 +1309,7 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>40.55095684449134</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1345,19 +1345,19 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>57.50343408519527</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1382,13 +1382,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896912</v>
       </c>
       <c r="H11" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T11" t="n">
         <v>208.4827883385019</v>
@@ -1433,7 +1433,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>369.7311006784686</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -1467,7 +1467,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1528,25 +1528,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,25 +1573,25 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>64.34190763938388</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>15.98360398438619</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -1619,13 +1619,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896909</v>
       </c>
       <c r="H14" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.7791350527408</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
@@ -1704,7 +1704,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014445</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1765,25 +1765,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>42.53080534003669</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
-        <v>19.06399128978616</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,13 +1810,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -1828,10 +1828,10 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1856,13 +1856,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>411.9645167896919</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H17" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
@@ -1941,7 +1941,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2005,19 +2005,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>60.091291234472</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>110.419245464272</v>
@@ -2050,25 +2050,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>13.03835714321355</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2099,7 +2099,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274071</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
@@ -2147,7 +2147,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.237938656054</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -2178,7 +2178,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2239,7 +2239,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -2251,13 +2251,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>42.17411981825379</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,28 +2284,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>115.6890940181682</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2336,7 +2336,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274071</v>
+        <v>81.77913505274049</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2415,7 +2415,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2473,28 +2473,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>111.7000900522962</v>
+        <v>111.7000900522966</v>
       </c>
       <c r="C25" t="n">
-        <v>99.11493096898721</v>
+        <v>99.11493096898717</v>
       </c>
       <c r="D25" t="n">
-        <v>80.48358288857173</v>
+        <v>80.48358288857169</v>
       </c>
       <c r="E25" t="n">
-        <v>78.30207251692855</v>
+        <v>78.3020725169285</v>
       </c>
       <c r="F25" t="n">
-        <v>77.28915789329062</v>
+        <v>77.28915789329058</v>
       </c>
       <c r="G25" t="n">
-        <v>98.36167833373698</v>
+        <v>98.36167833373692</v>
       </c>
       <c r="H25" t="n">
-        <v>80.7819382378955</v>
+        <v>80.78193823789546</v>
       </c>
       <c r="I25" t="n">
-        <v>42.28735533463135</v>
+        <v>42.28735533463133</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>41.83246227415215</v>
+        <v>41.83246227415214</v>
       </c>
       <c r="S25" t="n">
         <v>129.7889198539626</v>
@@ -2533,16 +2533,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V25" t="n">
-        <v>184.0057531941874</v>
+        <v>184.0057531941873</v>
       </c>
       <c r="W25" t="n">
-        <v>218.3911082069504</v>
+        <v>218.3911082069503</v>
       </c>
       <c r="X25" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y25" t="n">
-        <v>150.4527632224542</v>
+        <v>150.4527632224541</v>
       </c>
     </row>
     <row r="26">
@@ -2573,7 +2573,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2652,7 +2652,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>111.7000900522962</v>
+        <v>111.7000900522966</v>
       </c>
       <c r="C28" t="n">
-        <v>99.11493096898721</v>
+        <v>99.11493096898717</v>
       </c>
       <c r="D28" t="n">
-        <v>80.48358288857173</v>
+        <v>80.48358288857169</v>
       </c>
       <c r="E28" t="n">
-        <v>78.30207251692855</v>
+        <v>78.3020725169285</v>
       </c>
       <c r="F28" t="n">
-        <v>77.28915789329062</v>
+        <v>77.28915789329058</v>
       </c>
       <c r="G28" t="n">
-        <v>98.36167833373698</v>
+        <v>98.36167833373693</v>
       </c>
       <c r="H28" t="n">
-        <v>80.7819382378955</v>
+        <v>80.78193823789546</v>
       </c>
       <c r="I28" t="n">
-        <v>42.28735533463136</v>
+        <v>42.28735533463132</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>41.83246227415216</v>
+        <v>41.83246227415214</v>
       </c>
       <c r="S28" t="n">
         <v>129.7889198539626</v>
@@ -2770,16 +2770,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V28" t="n">
-        <v>184.0057531941874</v>
+        <v>184.0057531941873</v>
       </c>
       <c r="W28" t="n">
-        <v>218.3911082069504</v>
+        <v>218.3911082069505</v>
       </c>
       <c r="X28" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y28" t="n">
-        <v>150.4527632224542</v>
+        <v>150.4527632224541</v>
       </c>
     </row>
     <row r="29">
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>111.7000900522967</v>
+        <v>111.7000900522966</v>
       </c>
       <c r="C31" t="n">
-        <v>99.11493096898721</v>
+        <v>99.11493096898717</v>
       </c>
       <c r="D31" t="n">
-        <v>80.48358288857084</v>
+        <v>80.48358288857169</v>
       </c>
       <c r="E31" t="n">
-        <v>78.30207251692855</v>
+        <v>78.3020725169285</v>
       </c>
       <c r="F31" t="n">
-        <v>77.28915789329062</v>
+        <v>77.28915789329058</v>
       </c>
       <c r="G31" t="n">
-        <v>98.36167833373698</v>
+        <v>98.36167833373693</v>
       </c>
       <c r="H31" t="n">
-        <v>80.7819382378955</v>
+        <v>80.78193823789546</v>
       </c>
       <c r="I31" t="n">
-        <v>42.28735533463136</v>
+        <v>42.28735533463175</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>41.83246227415218</v>
+        <v>41.83246227415214</v>
       </c>
       <c r="S31" t="n">
         <v>129.7889198539626</v>
@@ -3007,16 +3007,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V31" t="n">
-        <v>184.0057531941874</v>
+        <v>184.0057531941873</v>
       </c>
       <c r="W31" t="n">
-        <v>218.3911082069504</v>
+        <v>218.3911082069503</v>
       </c>
       <c r="X31" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y31" t="n">
-        <v>150.4527632224542</v>
+        <v>150.4527632224541</v>
       </c>
     </row>
     <row r="32">
@@ -3047,7 +3047,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3126,7 +3126,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>111.7000900522967</v>
+        <v>111.7000900522966</v>
       </c>
       <c r="C34" t="n">
-        <v>99.11493096898721</v>
+        <v>99.11493096898717</v>
       </c>
       <c r="D34" t="n">
-        <v>80.48358288857173</v>
+        <v>80.48358288857169</v>
       </c>
       <c r="E34" t="n">
-        <v>78.30207251692855</v>
+        <v>78.3020725169285</v>
       </c>
       <c r="F34" t="n">
-        <v>77.28915789329062</v>
+        <v>77.28915789329058</v>
       </c>
       <c r="G34" t="n">
-        <v>98.36167833373698</v>
+        <v>98.36167833373692</v>
       </c>
       <c r="H34" t="n">
-        <v>80.7819382378955</v>
+        <v>80.78193823789546</v>
       </c>
       <c r="I34" t="n">
-        <v>42.28735533463136</v>
+        <v>42.28735533463133</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.83246227415216</v>
+        <v>41.83246227415214</v>
       </c>
       <c r="S34" t="n">
         <v>129.7889198539626</v>
@@ -3244,16 +3244,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V34" t="n">
-        <v>184.0057531941874</v>
+        <v>184.0057531941873</v>
       </c>
       <c r="W34" t="n">
-        <v>218.3911082069504</v>
+        <v>218.3911082069503</v>
       </c>
       <c r="X34" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y34" t="n">
-        <v>150.4527632224542</v>
+        <v>150.4527632224541</v>
       </c>
     </row>
     <row r="35">
@@ -3320,7 +3320,7 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U35" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498008</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>111.7000900522966</v>
+        <v>111.7000900522967</v>
       </c>
       <c r="C37" t="n">
-        <v>99.11493096898718</v>
+        <v>99.11493096898722</v>
       </c>
       <c r="D37" t="n">
-        <v>80.4835828885717</v>
+        <v>80.48358288857175</v>
       </c>
       <c r="E37" t="n">
-        <v>78.30207251692852</v>
+        <v>78.30207251692856</v>
       </c>
       <c r="F37" t="n">
-        <v>77.28915789329059</v>
+        <v>77.28915789329064</v>
       </c>
       <c r="G37" t="n">
-        <v>98.36167833373693</v>
+        <v>98.36167833373698</v>
       </c>
       <c r="H37" t="n">
-        <v>80.78193823789547</v>
+        <v>80.78193823789552</v>
       </c>
       <c r="I37" t="n">
-        <v>42.28735533463134</v>
+        <v>42.28735533463139</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.83246227415215</v>
+        <v>41.83246227415219</v>
       </c>
       <c r="S37" t="n">
         <v>129.7889198539626</v>
@@ -3481,16 +3481,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V37" t="n">
-        <v>184.0057531941873</v>
+        <v>184.0057531941874</v>
       </c>
       <c r="W37" t="n">
-        <v>218.3911082069503</v>
+        <v>218.3911082069504</v>
       </c>
       <c r="X37" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y37" t="n">
-        <v>150.4527632224541</v>
+        <v>150.4527632224542</v>
       </c>
     </row>
     <row r="38">
@@ -3500,7 +3500,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -3673,7 +3673,7 @@
         <v>77.28915789329059</v>
       </c>
       <c r="G40" t="n">
-        <v>98.36167833373693</v>
+        <v>98.36167833373695</v>
       </c>
       <c r="H40" t="n">
         <v>80.78193823789547</v>
@@ -3737,7 +3737,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
@@ -3758,7 +3758,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3837,7 +3837,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>111.7000900522967</v>
+        <v>111.7000900522966</v>
       </c>
       <c r="C43" t="n">
-        <v>99.11493096898721</v>
+        <v>99.11493096898717</v>
       </c>
       <c r="D43" t="n">
-        <v>80.48358288857173</v>
+        <v>80.48358288857169</v>
       </c>
       <c r="E43" t="n">
-        <v>78.30207251692855</v>
+        <v>78.3020725169285</v>
       </c>
       <c r="F43" t="n">
-        <v>77.28915789329062</v>
+        <v>77.28915789329058</v>
       </c>
       <c r="G43" t="n">
-        <v>98.36167833373696</v>
+        <v>98.36167833373692</v>
       </c>
       <c r="H43" t="n">
-        <v>80.7819382378955</v>
+        <v>80.78193823789546</v>
       </c>
       <c r="I43" t="n">
-        <v>42.28735533463136</v>
+        <v>42.28735533463133</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.83246227415216</v>
+        <v>41.83246227415214</v>
       </c>
       <c r="S43" t="n">
         <v>129.7889198539626</v>
@@ -3955,16 +3955,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V43" t="n">
-        <v>184.0057531941874</v>
+        <v>184.0057531941873</v>
       </c>
       <c r="W43" t="n">
-        <v>218.3911082069504</v>
+        <v>218.3911082069503</v>
       </c>
       <c r="X43" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y43" t="n">
-        <v>150.4527632224542</v>
+        <v>150.4527632224541</v>
       </c>
     </row>
     <row r="44">
@@ -3995,7 +3995,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
@@ -4074,7 +4074,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4135,25 +4135,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C46" t="n">
-        <v>99.11493096898717</v>
+        <v>99.11493096898714</v>
       </c>
       <c r="D46" t="n">
-        <v>80.48358288857169</v>
+        <v>80.48358288857166</v>
       </c>
       <c r="E46" t="n">
-        <v>78.3020725169285</v>
+        <v>78.30207251692848</v>
       </c>
       <c r="F46" t="n">
-        <v>77.28915789329058</v>
+        <v>77.28915789329055</v>
       </c>
       <c r="G46" t="n">
-        <v>98.36167833373692</v>
+        <v>98.36167833373689</v>
       </c>
       <c r="H46" t="n">
-        <v>80.78193823789546</v>
+        <v>80.78193823789543</v>
       </c>
       <c r="I46" t="n">
-        <v>42.28735533463131</v>
+        <v>42.2873553346313</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.83246227415212</v>
+        <v>41.83246227415211</v>
       </c>
       <c r="S46" t="n">
         <v>129.7889198539626</v>
@@ -4304,19 +4304,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1078.595463490097</v>
+        <v>1719.377429947077</v>
       </c>
       <c r="C2" t="n">
-        <v>1078.595463490097</v>
+        <v>1376.372217881286</v>
       </c>
       <c r="D2" t="n">
-        <v>720.329764883347</v>
+        <v>1018.106519274536</v>
       </c>
       <c r="E2" t="n">
-        <v>334.5415122851028</v>
+        <v>632.3182666762915</v>
       </c>
       <c r="F2" t="n">
-        <v>334.5415122851028</v>
+        <v>221.3323618866839</v>
       </c>
       <c r="G2" t="n">
         <v>207.4089578252748</v>
@@ -4328,13 +4328,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4352,28 +4352,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2642.120401548716</v>
+        <v>2672.29408967284</v>
       </c>
       <c r="S2" t="n">
-        <v>2642.120401548716</v>
+        <v>2496.11660198701</v>
       </c>
       <c r="T2" t="n">
-        <v>2423.485734520778</v>
+        <v>2496.11660198701</v>
       </c>
       <c r="U2" t="n">
-        <v>2169.72394915887</v>
+        <v>2496.11660198701</v>
       </c>
       <c r="V2" t="n">
-        <v>1838.661061815299</v>
+        <v>2496.11660198701</v>
       </c>
       <c r="W2" t="n">
-        <v>1838.661061815299</v>
+        <v>2496.11660198701</v>
       </c>
       <c r="X2" t="n">
-        <v>1465.195303554219</v>
+        <v>2496.11660198701</v>
       </c>
       <c r="Y2" t="n">
-        <v>1465.195303554219</v>
+        <v>2105.977270011198</v>
       </c>
     </row>
     <row r="3">
@@ -4422,10 +4422,10 @@
         <v>1866.936832414847</v>
       </c>
       <c r="O3" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P3" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4462,28 +4462,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>99.5995062532301</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="C4" t="n">
-        <v>99.5995062532301</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="D4" t="n">
-        <v>99.5995062532301</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="E4" t="n">
-        <v>99.5995062532301</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="F4" t="n">
-        <v>99.5995062532301</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="G4" t="n">
-        <v>99.5995062532301</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="H4" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I4" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J4" t="n">
         <v>53.94298182036445</v>
@@ -4492,46 +4492,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M4" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064344</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064344</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064344</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064344</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="V4" t="n">
-        <v>473.4444960005476</v>
+        <v>432.4839335313644</v>
       </c>
       <c r="W4" t="n">
-        <v>281.2479710834698</v>
+        <v>432.4839335313644</v>
       </c>
       <c r="X4" t="n">
-        <v>281.2479710834698</v>
+        <v>432.4839335313644</v>
       </c>
       <c r="Y4" t="n">
-        <v>281.2479710834698</v>
+        <v>211.6913543878343</v>
       </c>
     </row>
     <row r="5">
@@ -4541,37 +4541,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1722.185086336931</v>
+        <v>1331.061315312042</v>
       </c>
       <c r="C5" t="n">
-        <v>1722.185086336931</v>
+        <v>1331.061315312042</v>
       </c>
       <c r="D5" t="n">
-        <v>1363.919387730181</v>
+        <v>1331.061315312042</v>
       </c>
       <c r="E5" t="n">
-        <v>978.1311351319366</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="F5" t="n">
-        <v>799.1015098861748</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G5" t="n">
-        <v>381.1377017843616</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4589,28 +4589,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T5" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U5" t="n">
-        <v>2443.387305656314</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="V5" t="n">
-        <v>2112.324418312743</v>
+        <v>2057.295728843236</v>
       </c>
       <c r="W5" t="n">
-        <v>2112.324418312743</v>
+        <v>1704.527073573122</v>
       </c>
       <c r="X5" t="n">
-        <v>2112.324418312743</v>
+        <v>1331.061315312042</v>
       </c>
       <c r="Y5" t="n">
-        <v>1722.185086336931</v>
+        <v>1331.061315312042</v>
       </c>
     </row>
     <row r="6">
@@ -4620,22 +4620,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170833</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359563</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H6" t="n">
         <v>115.9856282673424</v>
@@ -4665,28 +4665,28 @@
         <v>2643.31756905002</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X6" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y6" t="n">
         <v>1156.713312237151</v>
@@ -4699,28 +4699,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>184.027325963587</v>
+        <v>211.6471865296039</v>
       </c>
       <c r="C7" t="n">
-        <v>184.027325963587</v>
+        <v>211.6471865296039</v>
       </c>
       <c r="D7" t="n">
-        <v>184.027325963587</v>
+        <v>211.6471865296039</v>
       </c>
       <c r="E7" t="n">
-        <v>184.027325963587</v>
+        <v>211.6471865296039</v>
       </c>
       <c r="F7" t="n">
-        <v>184.027325963587</v>
+        <v>211.6471865296039</v>
       </c>
       <c r="G7" t="n">
-        <v>184.027325963587</v>
+        <v>211.6471865296039</v>
       </c>
       <c r="H7" t="n">
-        <v>184.027325963587</v>
+        <v>211.6471865296039</v>
       </c>
       <c r="I7" t="n">
-        <v>99.5995062532301</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036445</v>
@@ -4729,46 +4729,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M7" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064344</v>
+        <v>500.820796875036</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064344</v>
+        <v>211.6471865296039</v>
       </c>
       <c r="V7" t="n">
-        <v>473.4444960005476</v>
+        <v>211.6471865296039</v>
       </c>
       <c r="W7" t="n">
-        <v>184.027325963587</v>
+        <v>211.6471865296039</v>
       </c>
       <c r="X7" t="n">
-        <v>184.027325963587</v>
+        <v>211.6471865296039</v>
       </c>
       <c r="Y7" t="n">
-        <v>184.027325963587</v>
+        <v>211.6471865296039</v>
       </c>
     </row>
     <row r="8">
@@ -4778,31 +4778,31 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1463.674302457628</v>
+        <v>1721.819089287443</v>
       </c>
       <c r="C8" t="n">
-        <v>1094.711785517216</v>
+        <v>1721.819089287443</v>
       </c>
       <c r="D8" t="n">
-        <v>736.4460869104657</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="E8" t="n">
-        <v>350.6578343122215</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="F8" t="n">
-        <v>343.712333563018</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G8" t="n">
-        <v>329.7889295016089</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
         <v>463.9616490733127</v>
@@ -4826,28 +4826,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018222</v>
+        <v>2661.655975634763</v>
       </c>
       <c r="S8" t="n">
-        <v>2520.971603332393</v>
+        <v>2661.655975634763</v>
       </c>
       <c r="T8" t="n">
-        <v>2520.971603332393</v>
+        <v>2443.021308606826</v>
       </c>
       <c r="U8" t="n">
-        <v>2520.971603332393</v>
+        <v>2443.021308606826</v>
       </c>
       <c r="V8" t="n">
-        <v>2189.908715988822</v>
+        <v>2111.958421263255</v>
       </c>
       <c r="W8" t="n">
-        <v>1837.140060718708</v>
+        <v>2111.958421263255</v>
       </c>
       <c r="X8" t="n">
-        <v>1463.674302457628</v>
+        <v>2111.958421263255</v>
       </c>
       <c r="Y8" t="n">
-        <v>1463.674302457628</v>
+        <v>1721.819089287443</v>
       </c>
     </row>
     <row r="9">
@@ -4857,19 +4857,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C9" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E9" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G9" t="n">
         <v>221.4284102424006</v>
@@ -4881,16 +4881,16 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>309.190302261463</v>
+        <v>266.2060027641987</v>
       </c>
       <c r="L9" t="n">
-        <v>670.8219208598711</v>
+        <v>670.8219208598706</v>
       </c>
       <c r="M9" t="n">
-        <v>1194.968834417902</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N9" t="n">
         <v>1748.695370517453</v>
@@ -4902,22 +4902,22 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R9" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S9" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T9" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U9" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V9" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W9" t="n">
         <v>1572.325111207638</v>
@@ -4936,25 +4936,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>380.6275373157412</v>
+        <v>252.6519168570175</v>
       </c>
       <c r="C10" t="n">
-        <v>211.6913543878343</v>
+        <v>252.6519168570175</v>
       </c>
       <c r="D10" t="n">
-        <v>211.6913543878343</v>
+        <v>252.6519168570175</v>
       </c>
       <c r="E10" t="n">
-        <v>211.6913543878343</v>
+        <v>252.6519168570175</v>
       </c>
       <c r="F10" t="n">
-        <v>211.6913543878343</v>
+        <v>252.6519168570175</v>
       </c>
       <c r="G10" t="n">
-        <v>211.6913543878343</v>
+        <v>252.6519168570175</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036445</v>
+        <v>94.90354428954763</v>
       </c>
       <c r="I10" t="n">
         <v>53.94298182036445</v>
@@ -4993,19 +4993,19 @@
         <v>728.1289842064344</v>
       </c>
       <c r="U10" t="n">
-        <v>670.0447073527018</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V10" t="n">
-        <v>670.0447073527018</v>
+        <v>473.4444960005476</v>
       </c>
       <c r="W10" t="n">
-        <v>380.6275373157412</v>
+        <v>473.4444960005476</v>
       </c>
       <c r="X10" t="n">
-        <v>380.6275373157412</v>
+        <v>473.4444960005476</v>
       </c>
       <c r="Y10" t="n">
-        <v>380.6275373157412</v>
+        <v>252.6519168570175</v>
       </c>
     </row>
     <row r="11">
@@ -5015,19 +5015,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C11" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E11" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G11" t="n">
         <v>488.193237080547</v>
@@ -5039,7 +5039,7 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K11" t="n">
         <v>889.2841917514083</v>
@@ -5081,10 +5081,10 @@
         <v>3578.526314851616</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="12">
@@ -5118,22 +5118,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K12" t="n">
-        <v>549.5984374701561</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L12" t="n">
-        <v>891.4406401619858</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M12" t="n">
-        <v>1198.760773441947</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N12" t="n">
-        <v>1528.62340110598</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O12" t="n">
-        <v>1808.163466324677</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P12" t="n">
         <v>2328.464088060424</v>
@@ -5173,25 +5173,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1141.200876391121</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="C13" t="n">
-        <v>972.2646934632137</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="D13" t="n">
-        <v>822.1480540508779</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="E13" t="n">
-        <v>674.2349604684848</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F13" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G13" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H13" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I13" t="n">
         <v>97.21709146028584</v>
@@ -5221,28 +5221,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S13" t="n">
-        <v>1322.84934122136</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T13" t="n">
-        <v>1322.84934122136</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U13" t="n">
-        <v>1322.84934122136</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V13" t="n">
-        <v>1322.84934122136</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="W13" t="n">
-        <v>1322.84934122136</v>
+        <v>441.900558318119</v>
       </c>
       <c r="X13" t="n">
-        <v>1322.84934122136</v>
+        <v>425.7555037884359</v>
       </c>
       <c r="Y13" t="n">
-        <v>1322.84934122136</v>
+        <v>425.7555037884359</v>
       </c>
     </row>
     <row r="14">
@@ -5255,31 +5255,31 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C14" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G14" t="n">
-        <v>488.1932370805471</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L14" t="n">
         <v>1590.888347795206</v>
@@ -5309,16 +5309,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y14" t="n">
         <v>2814.921224614724</v>
@@ -5355,25 +5355,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K15" t="n">
-        <v>287.7778528277032</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L15" t="n">
-        <v>709.4934589365146</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M15" t="n">
-        <v>1016.813592216476</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N15" t="n">
-        <v>1346.676219880509</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O15" t="n">
-        <v>2016.139981183168</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P15" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q15" t="n">
         <v>2623.573505376138</v>
@@ -5410,25 +5410,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>561.6946978510159</v>
+        <v>889.3582447451976</v>
       </c>
       <c r="C16" t="n">
-        <v>561.6946978510159</v>
+        <v>720.4220618172907</v>
       </c>
       <c r="D16" t="n">
-        <v>561.6946978510159</v>
+        <v>570.3054224049549</v>
       </c>
       <c r="E16" t="n">
-        <v>413.7816042686228</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="F16" t="n">
-        <v>266.8916567707124</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="G16" t="n">
-        <v>266.8916567707124</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H16" t="n">
-        <v>116.4736483186557</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I16" t="n">
         <v>97.21709146028584</v>
@@ -5437,19 +5437,19 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K16" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799363</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471189</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O16" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P16" t="n">
         <v>1460.082827585746</v>
@@ -5458,28 +5458,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S16" t="n">
-        <v>1187.92115703528</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T16" t="n">
-        <v>964.1357418247858</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U16" t="n">
-        <v>964.1357418247858</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="V16" t="n">
-        <v>964.1357418247858</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="W16" t="n">
-        <v>964.1357418247858</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="X16" t="n">
-        <v>964.1357418247858</v>
+        <v>1071.006709575437</v>
       </c>
       <c r="Y16" t="n">
-        <v>743.3431626812556</v>
+        <v>1071.006709575437</v>
       </c>
     </row>
     <row r="17">
@@ -5489,34 +5489,34 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C17" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155899</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G17" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H17" t="n">
         <v>179.8222783822463</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L17" t="n">
         <v>1590.888347795206</v>
@@ -5531,34 +5531,34 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T17" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="18">
@@ -5589,16 +5589,16 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>138.7081686256435</v>
+        <v>233.7852434110091</v>
       </c>
       <c r="K18" t="n">
-        <v>549.5984374701561</v>
+        <v>644.6755122555218</v>
       </c>
       <c r="L18" t="n">
-        <v>891.4406401619856</v>
+        <v>891.4406401619858</v>
       </c>
       <c r="M18" t="n">
         <v>1198.760773441947</v>
@@ -5647,28 +5647,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>696.2811958984814</v>
+        <v>588.5027791527951</v>
       </c>
       <c r="C19" t="n">
-        <v>527.3450129705745</v>
+        <v>419.5665962248883</v>
       </c>
       <c r="D19" t="n">
-        <v>527.3450129705745</v>
+        <v>269.4499568125525</v>
       </c>
       <c r="E19" t="n">
-        <v>527.3450129705745</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="F19" t="n">
-        <v>527.3450129705745</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="G19" t="n">
-        <v>359.1696912903951</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H19" t="n">
         <v>208.7516828383384</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J19" t="n">
         <v>109.5997839241957</v>
@@ -5677,10 +5677,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
@@ -5698,25 +5698,25 @@
         <v>1387.841167119728</v>
       </c>
       <c r="S19" t="n">
-        <v>1187.92115703528</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T19" t="n">
-        <v>964.135741824786</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="U19" t="n">
-        <v>950.9656841043683</v>
+        <v>1098.712528333286</v>
       </c>
       <c r="V19" t="n">
-        <v>696.2811958984814</v>
+        <v>1098.712528333286</v>
       </c>
       <c r="W19" t="n">
-        <v>696.2811958984814</v>
+        <v>809.2953582963253</v>
       </c>
       <c r="X19" t="n">
-        <v>696.2811958984814</v>
+        <v>809.2953582963253</v>
       </c>
       <c r="Y19" t="n">
-        <v>696.2811958984814</v>
+        <v>588.5027791527951</v>
       </c>
     </row>
     <row r="20">
@@ -5726,7 +5726,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C20" t="n">
         <v>2059.358867610191</v>
@@ -5735,67 +5735,67 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G20" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823784</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514086</v>
+        <v>889.284191751408</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M20" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O20" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q20" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T20" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="21">
@@ -5826,28 +5826,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>263.5382936126483</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K21" t="n">
-        <v>674.4285624571611</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L21" t="n">
-        <v>921.1936903636253</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M21" t="n">
-        <v>1228.513823643587</v>
+        <v>1302.911127126629</v>
       </c>
       <c r="N21" t="n">
-        <v>1558.37645130762</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O21" t="n">
-        <v>1837.916516526317</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P21" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q21" t="n">
         <v>2623.573505376138</v>
@@ -5884,40 +5884,40 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>696.2714843595168</v>
+        <v>711.072954880832</v>
       </c>
       <c r="C22" t="n">
-        <v>696.2714843595168</v>
+        <v>542.1367719529251</v>
       </c>
       <c r="D22" t="n">
-        <v>546.154844947181</v>
+        <v>392.0201325405893</v>
       </c>
       <c r="E22" t="n">
-        <v>398.2417513647879</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F22" t="n">
-        <v>251.3518038668775</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G22" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H22" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J22" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K22" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N22" t="n">
         <v>1049.608084974667</v>
@@ -5926,34 +5926,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P22" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q22" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R22" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S22" t="n">
-        <v>1387.841167119728</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T22" t="n">
-        <v>1387.841167119728</v>
+        <v>1182.138589748032</v>
       </c>
       <c r="U22" t="n">
-        <v>1098.712528333287</v>
+        <v>1182.138589748032</v>
       </c>
       <c r="V22" t="n">
-        <v>1098.712528333287</v>
+        <v>1182.138589748032</v>
       </c>
       <c r="W22" t="n">
-        <v>1098.712528333287</v>
+        <v>892.7214197110717</v>
       </c>
       <c r="X22" t="n">
-        <v>1098.712528333287</v>
+        <v>892.7214197110717</v>
       </c>
       <c r="Y22" t="n">
-        <v>877.9199491897565</v>
+        <v>892.7214197110717</v>
       </c>
     </row>
     <row r="23">
@@ -5966,7 +5966,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D23" t="n">
         <v>1701.09316900344</v>
@@ -5975,61 +5975,61 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155879</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805462</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I23" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M23" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O23" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
         <v>4454.632848899126</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R23" t="n">
         <v>4860.854573014292</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T23" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y23" t="n">
         <v>2814.921224614724</v>
@@ -6054,34 +6054,34 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F24" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G24" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H24" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>263.5382936126483</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K24" t="n">
-        <v>674.428562457161</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L24" t="n">
-        <v>921.1936903636251</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M24" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N24" t="n">
-        <v>1558.37645130762</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O24" t="n">
-        <v>1837.916516526317</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P24" t="n">
         <v>2328.464088060424</v>
@@ -6121,28 +6121,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>659.4602391108333</v>
+        <v>659.4602391108326</v>
       </c>
       <c r="C25" t="n">
-        <v>559.3441472229674</v>
+        <v>559.344147222967</v>
       </c>
       <c r="D25" t="n">
-        <v>478.0475988506727</v>
+        <v>478.0475988506725</v>
       </c>
       <c r="E25" t="n">
-        <v>398.9545963083207</v>
+        <v>398.9545963083204</v>
       </c>
       <c r="F25" t="n">
-        <v>320.8847398504514</v>
+        <v>320.8847398504512</v>
       </c>
       <c r="G25" t="n">
-        <v>221.529509210313</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H25" t="n">
-        <v>139.9315917982973</v>
+        <v>139.9315917982972</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="J25" t="n">
         <v>177.05035515254</v>
@@ -6151,7 +6151,7 @@
         <v>394.6863306254957</v>
       </c>
       <c r="L25" t="n">
-        <v>709.8489468649692</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M25" t="n">
         <v>1048.866260860496</v>
@@ -6166,7 +6166,7 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q25" t="n">
-        <v>2038.520840384657</v>
+        <v>2038.520840384656</v>
       </c>
       <c r="R25" t="n">
         <v>1996.265827986523</v>
@@ -6187,10 +6187,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X25" t="n">
-        <v>924.2611010045205</v>
+        <v>924.2611010045202</v>
       </c>
       <c r="Y25" t="n">
-        <v>772.2886129010315</v>
+        <v>772.2886129010312</v>
       </c>
     </row>
     <row r="26">
@@ -6224,19 +6224,19 @@
         <v>97.21709146028562</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M26" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O26" t="n">
         <v>3889.732883643323</v>
@@ -6312,7 +6312,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M27" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N27" t="n">
         <v>1558.376451307619</v>
@@ -6321,10 +6321,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P27" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q27" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R27" t="n">
         <v>2623.573505376138</v>
@@ -6358,22 +6358,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>659.4602391108333</v>
+        <v>659.4602391108331</v>
       </c>
       <c r="C28" t="n">
-        <v>559.3441472229674</v>
+        <v>559.3441472229672</v>
       </c>
       <c r="D28" t="n">
-        <v>478.0475988506727</v>
+        <v>478.0475988506726</v>
       </c>
       <c r="E28" t="n">
-        <v>398.9545963083207</v>
+        <v>398.9545963083205</v>
       </c>
       <c r="F28" t="n">
-        <v>320.8847398504514</v>
+        <v>320.8847398504512</v>
       </c>
       <c r="G28" t="n">
-        <v>221.529509210313</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H28" t="n">
         <v>139.9315917982973</v>
@@ -6382,7 +6382,7 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J28" t="n">
-        <v>177.0503551525399</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K28" t="n">
         <v>394.6863306254957</v>
@@ -6418,16 +6418,16 @@
         <v>1489.892037025262</v>
       </c>
       <c r="V28" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W28" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X28" t="n">
-        <v>924.2611010045205</v>
+        <v>924.2611010045207</v>
       </c>
       <c r="Y28" t="n">
-        <v>772.2886129010315</v>
+        <v>772.2886129010317</v>
       </c>
     </row>
     <row r="29">
@@ -6440,19 +6440,19 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H29" t="n">
         <v>179.8222783822463</v>
@@ -6461,10 +6461,10 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L29" t="n">
         <v>1590.888347795206</v>
@@ -6482,7 +6482,7 @@
         <v>4454.632848899126</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R29" t="n">
         <v>4860.854573014292</v>
@@ -6494,16 +6494,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y29" t="n">
         <v>2814.921224614724</v>
@@ -6540,28 +6540,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K30" t="n">
-        <v>549.5984374701561</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L30" t="n">
-        <v>891.4406401619858</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M30" t="n">
-        <v>1198.760773441947</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N30" t="n">
-        <v>1528.62340110598</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O30" t="n">
-        <v>1808.163466324677</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P30" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q30" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R30" t="n">
         <v>2623.573505376138</v>
@@ -6595,34 +6595,34 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>659.4602391108324</v>
+        <v>659.4602391108334</v>
       </c>
       <c r="C31" t="n">
-        <v>559.3441472229665</v>
+        <v>559.3441472229675</v>
       </c>
       <c r="D31" t="n">
-        <v>478.0475988506727</v>
+        <v>478.0475988506729</v>
       </c>
       <c r="E31" t="n">
-        <v>398.9545963083207</v>
+        <v>398.9545963083209</v>
       </c>
       <c r="F31" t="n">
-        <v>320.8847398504514</v>
+        <v>320.8847398504516</v>
       </c>
       <c r="G31" t="n">
-        <v>221.529509210313</v>
+        <v>221.5295092103133</v>
       </c>
       <c r="H31" t="n">
-        <v>139.9315917982973</v>
+        <v>139.9315917982977</v>
       </c>
       <c r="I31" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J31" t="n">
-        <v>177.0503551525399</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K31" t="n">
-        <v>394.6863306254955</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L31" t="n">
         <v>709.8489468649691</v>
@@ -6655,16 +6655,16 @@
         <v>1489.892037025262</v>
       </c>
       <c r="V31" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W31" t="n">
-        <v>1083.430560862496</v>
+        <v>1083.430560862497</v>
       </c>
       <c r="X31" t="n">
-        <v>924.26110100452</v>
+        <v>924.261101004521</v>
       </c>
       <c r="Y31" t="n">
-        <v>772.288612901031</v>
+        <v>772.288612901032</v>
       </c>
     </row>
     <row r="32">
@@ -6674,22 +6674,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155899</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H32" t="n">
         <v>179.8222783822463</v>
@@ -6698,28 +6698,28 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514093</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795208</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M32" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O32" t="n">
-        <v>3889.732883643325</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R32" t="n">
         <v>4860.854573014293</v>
@@ -6731,19 +6731,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y32" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="33">
@@ -6777,28 +6777,28 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J33" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K33" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L33" t="n">
-        <v>534.5429807341674</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M33" t="n">
-        <v>1302.911127126629</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N33" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O33" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P33" t="n">
-        <v>2536.440602918915</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q33" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R33" t="n">
         <v>2623.573505376138</v>
@@ -6844,10 +6844,10 @@
         <v>398.9545963083202</v>
       </c>
       <c r="F34" t="n">
-        <v>320.8847398504509</v>
+        <v>320.884739850451</v>
       </c>
       <c r="G34" t="n">
-        <v>221.5295092103125</v>
+        <v>221.5295092103127</v>
       </c>
       <c r="H34" t="n">
         <v>139.9315917982973</v>
@@ -6859,13 +6859,13 @@
         <v>177.05035515254</v>
       </c>
       <c r="K34" t="n">
-        <v>394.6863306254955</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L34" t="n">
-        <v>709.848946864969</v>
+        <v>709.8489468649692</v>
       </c>
       <c r="M34" t="n">
-        <v>1048.866260860496</v>
+        <v>1048.866260860497</v>
       </c>
       <c r="N34" t="n">
         <v>1386.860941116388</v>
@@ -6877,7 +6877,7 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q34" t="n">
-        <v>2038.520840384656</v>
+        <v>2038.520840384657</v>
       </c>
       <c r="R34" t="n">
         <v>1996.265827986523</v>
@@ -6901,7 +6901,7 @@
         <v>924.2611010045205</v>
       </c>
       <c r="Y34" t="n">
-        <v>772.2886129010313</v>
+        <v>772.2886129010315</v>
       </c>
     </row>
     <row r="35">
@@ -6911,7 +6911,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C35" t="n">
         <v>2059.358867610191</v>
@@ -6920,43 +6920,43 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E35" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805465</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M35" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O35" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R35" t="n">
         <v>4860.854573014292</v>
@@ -6971,16 +6971,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W35" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="36">
@@ -7020,22 +7020,22 @@
         <v>674.4285624571609</v>
       </c>
       <c r="L36" t="n">
-        <v>1206.718781115524</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M36" t="n">
-        <v>1514.038914395485</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N36" t="n">
-        <v>1843.901542059518</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O36" t="n">
-        <v>2123.441607278215</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P36" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q36" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R36" t="n">
         <v>2623.573505376138</v>
@@ -7069,22 +7069,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>659.4602391108331</v>
+        <v>659.4602391108333</v>
       </c>
       <c r="C37" t="n">
-        <v>559.3441472229672</v>
+        <v>559.3441472229674</v>
       </c>
       <c r="D37" t="n">
-        <v>478.0475988506725</v>
+        <v>478.0475988506728</v>
       </c>
       <c r="E37" t="n">
-        <v>398.9545963083204</v>
+        <v>398.9545963083207</v>
       </c>
       <c r="F37" t="n">
-        <v>320.8847398504512</v>
+        <v>320.8847398504514</v>
       </c>
       <c r="G37" t="n">
-        <v>221.5295092103129</v>
+        <v>221.529509210313</v>
       </c>
       <c r="H37" t="n">
         <v>139.9315917982973</v>
@@ -7093,19 +7093,19 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J37" t="n">
-        <v>177.0503551525403</v>
+        <v>177.0503551525401</v>
       </c>
       <c r="K37" t="n">
-        <v>394.6863306254956</v>
+        <v>394.6863306254954</v>
       </c>
       <c r="L37" t="n">
-        <v>709.8489468649691</v>
+        <v>709.8489468649689</v>
       </c>
       <c r="M37" t="n">
         <v>1048.866260860496</v>
       </c>
       <c r="N37" t="n">
-        <v>1386.860941116388</v>
+        <v>1386.860941116387</v>
       </c>
       <c r="O37" t="n">
         <v>1688.186490350129</v>
@@ -7126,19 +7126,19 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U37" t="n">
-        <v>1489.892037025262</v>
+        <v>1489.892037025263</v>
       </c>
       <c r="V37" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W37" t="n">
-        <v>1083.430560862497</v>
+        <v>1083.430560862498</v>
       </c>
       <c r="X37" t="n">
-        <v>924.2611010045207</v>
+        <v>924.2611010045214</v>
       </c>
       <c r="Y37" t="n">
-        <v>772.2886129010317</v>
+        <v>772.288612901032</v>
       </c>
     </row>
     <row r="38">
@@ -7148,13 +7148,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E38" t="n">
         <v>1315.304916405196</v>
@@ -7163,19 +7163,19 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805471</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L38" t="n">
         <v>1590.888347795206</v>
@@ -7190,13 +7190,13 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S38" t="n">
         <v>4726.561275231264</v>
@@ -7205,16 +7205,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y38" t="n">
         <v>2814.921224614724</v>
@@ -7248,7 +7248,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
         <v>263.5382936126482</v>
@@ -7257,22 +7257,22 @@
         <v>674.4285624571609</v>
       </c>
       <c r="L39" t="n">
-        <v>1206.718781115524</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M39" t="n">
-        <v>1514.038914395485</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N39" t="n">
-        <v>1843.901542059518</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O39" t="n">
-        <v>2123.441607278215</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P39" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q39" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R39" t="n">
         <v>2623.573505376138</v>
@@ -7306,28 +7306,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>659.4602391108327</v>
+        <v>659.4602391108331</v>
       </c>
       <c r="C40" t="n">
-        <v>559.3441472229669</v>
+        <v>559.3441472229672</v>
       </c>
       <c r="D40" t="n">
-        <v>478.0475988506722</v>
+        <v>478.0475988506725</v>
       </c>
       <c r="E40" t="n">
-        <v>398.9545963083201</v>
+        <v>398.9545963083204</v>
       </c>
       <c r="F40" t="n">
-        <v>320.8847398504508</v>
+        <v>320.8847398504513</v>
       </c>
       <c r="G40" t="n">
-        <v>221.529509210313</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H40" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J40" t="n">
         <v>177.05035515254</v>
@@ -7372,10 +7372,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X40" t="n">
-        <v>924.2611010045205</v>
+        <v>924.2611010045207</v>
       </c>
       <c r="Y40" t="n">
-        <v>772.2886129010313</v>
+        <v>772.2886129010317</v>
       </c>
     </row>
     <row r="41">
@@ -7385,7 +7385,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
         <v>2059.358867610191</v>
@@ -7394,34 +7394,34 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G41" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M41" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O41" t="n">
         <v>3889.732883643323</v>
@@ -7497,7 +7497,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M42" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N42" t="n">
         <v>1558.376451307619</v>
@@ -7506,10 +7506,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P42" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q42" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R42" t="n">
         <v>2623.573505376138</v>
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>659.4602391108333</v>
+        <v>659.4602391108327</v>
       </c>
       <c r="C43" t="n">
-        <v>559.3441472229674</v>
+        <v>559.3441472229669</v>
       </c>
       <c r="D43" t="n">
-        <v>478.0475988506728</v>
+        <v>478.0475988506722</v>
       </c>
       <c r="E43" t="n">
-        <v>398.9545963083207</v>
+        <v>398.9545963083201</v>
       </c>
       <c r="F43" t="n">
-        <v>320.8847398504513</v>
+        <v>320.884739850451</v>
       </c>
       <c r="G43" t="n">
-        <v>221.5295092103129</v>
+        <v>221.5295092103127</v>
       </c>
       <c r="H43" t="n">
-        <v>139.9315917982973</v>
+        <v>139.931591798297</v>
       </c>
       <c r="I43" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J43" t="n">
-        <v>177.0503551525399</v>
+        <v>177.0503551525403</v>
       </c>
       <c r="K43" t="n">
-        <v>394.6863306254956</v>
+        <v>394.6863306254959</v>
       </c>
       <c r="L43" t="n">
-        <v>709.8489468649691</v>
+        <v>709.8489468649694</v>
       </c>
       <c r="M43" t="n">
         <v>1048.866260860496</v>
       </c>
       <c r="N43" t="n">
-        <v>1386.860941116389</v>
+        <v>1386.860941116388</v>
       </c>
       <c r="O43" t="n">
-        <v>1688.18649035013</v>
+        <v>1688.186490350129</v>
       </c>
       <c r="P43" t="n">
-        <v>1932.236826184157</v>
+        <v>1932.236826184156</v>
       </c>
       <c r="Q43" t="n">
-        <v>2038.520840384657</v>
+        <v>2038.520840384656</v>
       </c>
       <c r="R43" t="n">
-        <v>1996.265827986523</v>
+        <v>1996.265827986522</v>
       </c>
       <c r="S43" t="n">
-        <v>1865.165908942117</v>
+        <v>1865.165908942116</v>
       </c>
       <c r="T43" t="n">
         <v>1710.200584771663</v>
       </c>
       <c r="U43" t="n">
-        <v>1489.892037025263</v>
+        <v>1489.892037025262</v>
       </c>
       <c r="V43" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W43" t="n">
-        <v>1083.430560862497</v>
+        <v>1083.430560862496</v>
       </c>
       <c r="X43" t="n">
-        <v>924.2611010045209</v>
+        <v>924.2611010045201</v>
       </c>
       <c r="Y43" t="n">
-        <v>772.2886129010319</v>
+        <v>772.288612901031</v>
       </c>
     </row>
     <row r="44">
@@ -7625,28 +7625,28 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155879</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805462</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K44" t="n">
         <v>889.2841917514085</v>
@@ -7673,22 +7673,22 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S44" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T44" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y44" t="n">
         <v>2814.921224614724</v>
@@ -7734,7 +7734,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M45" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N45" t="n">
         <v>1558.376451307619</v>
@@ -7743,10 +7743,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P45" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q45" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R45" t="n">
         <v>2623.573505376138</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>659.4602391108341</v>
+        <v>659.4602391108338</v>
       </c>
       <c r="C46" t="n">
-        <v>559.3441472229682</v>
+        <v>559.344147222968</v>
       </c>
       <c r="D46" t="n">
-        <v>478.0475988506736</v>
+        <v>478.0475988506734</v>
       </c>
       <c r="E46" t="n">
-        <v>398.9545963083216</v>
+        <v>398.9545963083214</v>
       </c>
       <c r="F46" t="n">
-        <v>320.8847398504523</v>
+        <v>320.8847398504521</v>
       </c>
       <c r="G46" t="n">
-        <v>221.5295092103131</v>
+        <v>221.5295092103128</v>
       </c>
       <c r="H46" t="n">
         <v>139.9315917982973</v>
@@ -7807,10 +7807,10 @@
         <v>177.05035515254</v>
       </c>
       <c r="K46" t="n">
-        <v>394.6863306254957</v>
+        <v>394.686330625496</v>
       </c>
       <c r="L46" t="n">
-        <v>709.8489468649692</v>
+        <v>709.8489468649695</v>
       </c>
       <c r="M46" t="n">
         <v>1048.866260860497</v>
@@ -7828,7 +7828,7 @@
         <v>2038.520840384657</v>
       </c>
       <c r="R46" t="n">
-        <v>1996.265827986524</v>
+        <v>1996.265827986523</v>
       </c>
       <c r="S46" t="n">
         <v>1865.165908942117</v>
@@ -7840,16 +7840,16 @@
         <v>1489.892037025263</v>
       </c>
       <c r="V46" t="n">
-        <v>1304.027639859418</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W46" t="n">
         <v>1083.430560862498</v>
       </c>
       <c r="X46" t="n">
-        <v>924.2611010045218</v>
+        <v>924.2611010045215</v>
       </c>
       <c r="Y46" t="n">
-        <v>772.2886129010327</v>
+        <v>772.2886129010324</v>
       </c>
     </row>
   </sheetData>
@@ -8070,13 +8070,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O3" t="n">
-        <v>274.4264991783515</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747121</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8313,7 +8313,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>90.64146763747119</v>
+        <v>90.64146763747121</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8529,13 +8529,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>145.0294169142008</v>
       </c>
       <c r="L9" t="n">
-        <v>327.4218609627887</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
         <v>465.7050637499999</v>
@@ -8766,13 +8766,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
-        <v>96.03744927814716</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -8784,13 +8784,13 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q12" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8933,7 +8933,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M14" t="n">
-        <v>449.5135334928334</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N14" t="n">
         <v>437.3469244119842</v>
@@ -9003,13 +9003,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
-        <v>176.7176547498458</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -9018,16 +9018,16 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
-        <v>34.7842838544522</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9240,13 +9240,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>96.03744927814714</v>
       </c>
       <c r="K18" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
-        <v>96.03744927814688</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -9264,7 +9264,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9477,31 +9477,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>423.3376789165117</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>288.4091825776744</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445214</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9653,7 +9653,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P23" t="n">
-        <v>321.7987081714807</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q23" t="n">
         <v>212.3149906599047</v>
@@ -9732,13 +9732,13 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>288.4091825776744</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445214</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9969,13 +9969,13 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>288.4091825776752</v>
+        <v>277.6717966208067</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10133,7 +10133,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298295</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10188,13 +10188,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>96.03744927814716</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
@@ -10206,13 +10206,13 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>318.4627686399372</v>
+        <v>277.6717966208067</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10370,7 +10370,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298386</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10425,31 +10425,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>423.3376789165115</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>277.6717966208067</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10607,7 +10607,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298295</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10668,7 +10668,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
-        <v>288.4091825776757</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
@@ -10680,13 +10680,13 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>277.6717966208067</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10838,7 +10838,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P38" t="n">
-        <v>321.7987081714841</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q38" t="n">
         <v>212.3149906599047</v>
@@ -10905,7 +10905,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
-        <v>288.4091825776757</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
@@ -10917,13 +10917,13 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>277.6717966208067</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11154,13 +11154,13 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>288.4091825776752</v>
+        <v>277.6717966208067</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11318,7 +11318,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11391,13 +11391,13 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>288.4091825776752</v>
+        <v>277.6717966208067</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -22547,7 +22547,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>25.69773182587523</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -22556,10 +22556,10 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>322.8338260392704</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>287.9229411055653</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -22604,13 +22604,13 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -22708,19 +22708,19 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -22747,7 +22747,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -22756,22 +22756,22 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>96.248438668684</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -23416,25 +23416,25 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,25 +23461,25 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>133.5789023442194</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890387</v>
+        <v>209.726051404651</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -23653,25 +23653,25 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>103.9031573065325</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>91.35525417448584</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,13 +23698,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
         <v>286.2373523985773</v>
@@ -23716,10 +23716,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23893,19 +23893,19 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>86.34267141209716</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -23938,25 +23938,25 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>273.1989952553638</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24127,7 +24127,7 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -24139,13 +24139,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>124.3194486451238</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,28 +24172,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>105.8584670402211</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24361,7 +24361,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -24598,7 +24598,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -24841,7 +24841,7 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>8.952838470577262e-13</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -24856,7 +24856,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>-4.334310688136611e-13</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>36783.84869564044</v>
+        <v>36783.84869564042</v>
       </c>
       <c r="C2" t="n">
-        <v>41052.08849321414</v>
+        <v>41052.08849321417</v>
       </c>
       <c r="D2" t="n">
-        <v>41052.08849321416</v>
+        <v>41052.08849321415</v>
       </c>
       <c r="E2" t="n">
-        <v>39102.90597377087</v>
+        <v>39102.90597377086</v>
       </c>
       <c r="F2" t="n">
+        <v>39102.90597377086</v>
+      </c>
+      <c r="G2" t="n">
+        <v>39102.90597377089</v>
+      </c>
+      <c r="H2" t="n">
         <v>39102.90597377088</v>
       </c>
-      <c r="G2" t="n">
-        <v>39102.90597377088</v>
-      </c>
-      <c r="H2" t="n">
-        <v>39102.90597377086</v>
-      </c>
       <c r="I2" t="n">
+        <v>41052.08849321413</v>
+      </c>
+      <c r="J2" t="n">
         <v>41052.08849321424</v>
-      </c>
-      <c r="J2" t="n">
-        <v>41052.08849321423</v>
       </c>
       <c r="K2" t="n">
         <v>41052.08849321424</v>
       </c>
       <c r="L2" t="n">
+        <v>41052.0884932142</v>
+      </c>
+      <c r="M2" t="n">
+        <v>41052.08849321419</v>
+      </c>
+      <c r="N2" t="n">
         <v>41052.08849321417</v>
       </c>
-      <c r="M2" t="n">
-        <v>41052.08849321418</v>
-      </c>
-      <c r="N2" t="n">
+      <c r="O2" t="n">
         <v>41052.08849321419</v>
       </c>
-      <c r="O2" t="n">
-        <v>41052.08849321416</v>
-      </c>
       <c r="P2" t="n">
-        <v>41052.08849321418</v>
+        <v>41052.0884932142</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145445</v>
+        <v>589967.8792145444</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.036476896</v>
+        <v>525160.0364768961</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26384,7 +26384,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>54505.5121037125</v>
+        <v>54505.51210371254</v>
       </c>
       <c r="J3" t="n">
         <v>176423.219192593</v>
@@ -26396,10 +26396,10 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338371</v>
+        <v>134801.015233837</v>
       </c>
       <c r="N3" t="n">
-        <v>54505.5121037125</v>
+        <v>54505.51210371256</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26427,37 +26427,37 @@
         <v>15045.6696214391</v>
       </c>
       <c r="F4" t="n">
-        <v>15045.6696214391</v>
+        <v>15045.66962143912</v>
       </c>
       <c r="G4" t="n">
         <v>15045.6696214391</v>
       </c>
       <c r="H4" t="n">
-        <v>15045.66962143908</v>
+        <v>15045.6696214391</v>
       </c>
       <c r="I4" t="n">
+        <v>37464.45686275959</v>
+      </c>
+      <c r="J4" t="n">
+        <v>37464.45686275959</v>
+      </c>
+      <c r="K4" t="n">
+        <v>37464.45686275959</v>
+      </c>
+      <c r="L4" t="n">
+        <v>37464.45686275959</v>
+      </c>
+      <c r="M4" t="n">
         <v>37464.45686275956</v>
       </c>
-      <c r="J4" t="n">
+      <c r="N4" t="n">
         <v>37464.45686275957</v>
       </c>
-      <c r="K4" t="n">
-        <v>37464.45686275957</v>
-      </c>
-      <c r="L4" t="n">
-        <v>37464.45686275957</v>
-      </c>
-      <c r="M4" t="n">
-        <v>37464.45686275957</v>
-      </c>
-      <c r="N4" t="n">
-        <v>37464.45686275958</v>
-      </c>
       <c r="O4" t="n">
-        <v>37464.45686275957</v>
+        <v>37464.45686275959</v>
       </c>
       <c r="P4" t="n">
-        <v>37464.45686275958</v>
+        <v>37464.45686275959</v>
       </c>
     </row>
     <row r="5">
@@ -26476,16 +26476,16 @@
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
+        <v>91987.32594871664</v>
+      </c>
+      <c r="F5" t="n">
+        <v>91987.32594871664</v>
+      </c>
+      <c r="G5" t="n">
         <v>91987.32594871662</v>
       </c>
-      <c r="F5" t="n">
+      <c r="H5" t="n">
         <v>91987.32594871662</v>
-      </c>
-      <c r="G5" t="n">
-        <v>91987.32594871664</v>
-      </c>
-      <c r="H5" t="n">
-        <v>91987.32594871665</v>
       </c>
       <c r="I5" t="n">
         <v>97715.10582002539</v>
@@ -26494,16 +26494,16 @@
         <v>97715.10582002539</v>
       </c>
       <c r="K5" t="n">
-        <v>97715.10582002538</v>
+        <v>97715.10582002539</v>
       </c>
       <c r="L5" t="n">
         <v>97715.1058200254</v>
       </c>
       <c r="M5" t="n">
+        <v>97715.10582002538</v>
+      </c>
+      <c r="N5" t="n">
         <v>97715.10582002539</v>
-      </c>
-      <c r="N5" t="n">
-        <v>97715.1058200254</v>
       </c>
       <c r="O5" t="n">
         <v>97715.10582002539</v>
@@ -26519,7 +26519,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-744094.6518918384</v>
+        <v>-744308.0638817169</v>
       </c>
       <c r="C6" t="n">
         <v>-198581.9478214179</v>
@@ -26528,37 +26528,37 @@
         <v>-198581.9478214179</v>
       </c>
       <c r="E6" t="n">
-        <v>-593090.1260732808</v>
+        <v>-593187.5851992531</v>
       </c>
       <c r="F6" t="n">
-        <v>-67930.08959638485</v>
+        <v>-68027.54872235707</v>
       </c>
       <c r="G6" t="n">
-        <v>-67930.08959638485</v>
+        <v>-68027.54872235699</v>
       </c>
       <c r="H6" t="n">
-        <v>-67930.08959638487</v>
+        <v>-68027.54872235701</v>
       </c>
       <c r="I6" t="n">
-        <v>-148632.9862932832</v>
+        <v>-148632.9862932834</v>
       </c>
       <c r="J6" t="n">
         <v>-270550.6933821637</v>
       </c>
       <c r="K6" t="n">
-        <v>-94127.4741895707</v>
+        <v>-94127.47418957073</v>
       </c>
       <c r="L6" t="n">
-        <v>-94127.47418957081</v>
+        <v>-94127.47418957078</v>
       </c>
       <c r="M6" t="n">
-        <v>-228928.4894234079</v>
+        <v>-228928.4894234078</v>
       </c>
       <c r="N6" t="n">
         <v>-148632.9862932833</v>
       </c>
       <c r="O6" t="n">
-        <v>-94127.47418957081</v>
+        <v>-94127.47418957078</v>
       </c>
       <c r="P6" t="n">
         <v>-94127.47418957078</v>
@@ -26704,28 +26704,28 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="J2" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="K2" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="L2" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M2" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="N2" t="n">
         <v>68.13189012964065</v>
       </c>
       <c r="O2" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P2" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
     </row>
     <row r="3">
@@ -26735,37 +26735,37 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
         <v>377.7436642170867</v>
       </c>
       <c r="E3" t="n">
+        <v>830.3824054541003</v>
+      </c>
+      <c r="F3" t="n">
+        <v>830.3824054541003</v>
+      </c>
+      <c r="G3" t="n">
         <v>830.3824054541002</v>
       </c>
-      <c r="F3" t="n">
-        <v>830.3824054541001</v>
-      </c>
-      <c r="G3" t="n">
-        <v>830.3824054541003</v>
-      </c>
       <c r="H3" t="n">
-        <v>830.3824054541005</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541005</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="K3" t="n">
         <v>830.3824054541002</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="M3" t="n">
         <v>830.3824054541002</v>
@@ -26774,10 +26774,10 @@
         <v>830.3824054541002</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
     </row>
     <row r="4">
@@ -26926,7 +26926,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -26938,10 +26938,10 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>2.842170943040401e-14</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -26957,7 +26957,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370135</v>
+        <v>452.6387412370136</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27163,7 +27163,7 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -27379,7 +27379,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -27388,10 +27388,10 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>84.04221970244106</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
         <v>323.9227727643571</v>
@@ -27424,28 +27424,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>29.8719512428832</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27534,19 +27534,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>167.3098022590509</v>
@@ -27558,7 +27558,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27579,28 +27579,28 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>106.1142351356667</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -27619,13 +27619,13 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>14.09752468722559</v>
       </c>
       <c r="F5" t="n">
-        <v>229.6367167484072</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -27634,7 +27634,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,7 +27661,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
@@ -27676,13 +27676,13 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27792,7 +27792,7 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>51.38208027908493</v>
+        <v>24.03841831872818</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,22 +27819,22 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -27853,25 +27853,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>50.83528455992507</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,13 +27898,13 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.4784025748117</v>
+        <v>19.34021834518674</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>251.2241675082893</v>
@@ -27913,13 +27913,13 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28011,7 +28011,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -28029,7 +28029,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>94.41466494784689</v>
       </c>
       <c r="J10" t="n">
         <v>45.19995918853699</v>
@@ -28065,19 +28065,19 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>228.7784401567825</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28153,7 +28153,7 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -28339,7 +28339,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -28867,7 +28867,7 @@
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>-1.364520294897987e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -29193,76 +29193,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="C25" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="D25" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="E25" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="F25" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="G25" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="H25" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="I25" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="J25" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="K25" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="L25" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M25" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N25" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O25" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P25" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Q25" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="R25" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="S25" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="T25" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="U25" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="V25" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="W25" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="X25" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Y25" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
     <row r="26">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="C28" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="D28" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="E28" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="F28" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="G28" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="H28" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="I28" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="J28" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="K28" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="L28" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M28" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N28" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O28" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P28" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Q28" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="R28" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="S28" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="T28" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="U28" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="V28" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="W28" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="X28" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Y28" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
     <row r="29">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="C31" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="D31" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="E31" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="F31" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="G31" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="H31" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="I31" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="J31" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="K31" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="L31" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M31" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N31" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O31" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P31" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Q31" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="R31" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="S31" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="T31" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="U31" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="V31" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="W31" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="X31" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Y31" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
     <row r="32">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="C34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="D34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="E34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="F34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="G34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="H34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="I34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="J34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="K34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="L34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Q34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="R34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="S34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="T34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="U34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="V34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="W34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="X34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Y34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
     <row r="35">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="C37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="D37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="E37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="F37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="G37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="H37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="I37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="J37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="K37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="L37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="M37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="N37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="O37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="P37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="Q37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="R37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="S37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="T37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="U37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="V37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="W37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="X37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="Y37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964061</v>
       </c>
     </row>
     <row r="38">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="C43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="D43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="E43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="F43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="G43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="H43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="I43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="J43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="K43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="L43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Q43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="R43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="S43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="T43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="U43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="V43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="W43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="X43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Y43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="C46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="D46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="E46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="F46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="G46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="H46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="I46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="J46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="K46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="L46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="M46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="N46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="O46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="P46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="Q46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="R46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="S46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="T46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="U46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="V46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="W46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="X46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="Y46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
     </row>
   </sheetData>
@@ -31045,19 +31045,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L2" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31072,13 +31072,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,16 +31118,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I3" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31145,22 +31145,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,16 +31197,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31221,16 +31221,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31282,19 +31282,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L5" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31309,13 +31309,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,16 +31355,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I6" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31382,22 +31382,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,16 +31434,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31458,16 +31458,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31750,16 +31750,16 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K11" t="n">
         <v>424.6341946041488</v>
@@ -31768,7 +31768,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N11" t="n">
         <v>595.6470695927186</v>
@@ -31777,7 +31777,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q11" t="n">
         <v>360.4902833647496</v>
@@ -31786,7 +31786,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
@@ -31829,7 +31829,7 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H12" t="n">
         <v>17.25001940386726</v>
@@ -31838,7 +31838,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K12" t="n">
         <v>288.4168775622982</v>
@@ -31847,10 +31847,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O12" t="n">
         <v>424.9599466855526</v>
@@ -31865,10 +31865,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T12" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31929,7 +31929,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O13" t="n">
         <v>211.6522236065632</v>
@@ -31941,16 +31941,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S13" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961203</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K14" t="n">
-        <v>424.6341946041487</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L14" t="n">
-        <v>526.7962671304439</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N14" t="n">
-        <v>595.6470695927185</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O14" t="n">
-        <v>562.4526372540885</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946991</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q14" t="n">
-        <v>360.4902833647495</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R14" t="n">
-        <v>209.6945076446477</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.06970478104647</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U14" t="n">
-        <v>0.2670576580354892</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,34 +32066,34 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H15" t="n">
-        <v>17.25001940386725</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I15" t="n">
-        <v>61.49530078127063</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K15" t="n">
         <v>288.4168775622982</v>
       </c>
       <c r="L15" t="n">
-        <v>387.8120847358984</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O15" t="n">
-        <v>424.9599466855525</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P15" t="n">
-        <v>341.0678223458548</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q15" t="n">
         <v>227.9948068710956</v>
@@ -32102,10 +32102,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T15" t="n">
-        <v>7.199258779361488</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32151,7 +32151,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I16" t="n">
-        <v>45.03122946298629</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J16" t="n">
         <v>105.8669502822383</v>
@@ -32166,10 +32166,10 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N16" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O16" t="n">
-        <v>211.6522236065631</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P16" t="n">
         <v>181.1050413469073</v>
@@ -32178,16 +32178,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S16" t="n">
-        <v>26.095788053369</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892244</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,16 +32224,16 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K17" t="n">
         <v>424.6341946041488</v>
@@ -32242,7 +32242,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N17" t="n">
         <v>595.6470695927186</v>
@@ -32251,7 +32251,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q17" t="n">
         <v>360.4902833647496</v>
@@ -32260,7 +32260,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
@@ -32303,7 +32303,7 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H18" t="n">
         <v>17.25001940386726</v>
@@ -32312,7 +32312,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K18" t="n">
         <v>288.4168775622982</v>
@@ -32321,10 +32321,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O18" t="n">
         <v>424.9599466855526</v>
@@ -32339,10 +32339,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T18" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32403,7 +32403,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N19" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O19" t="n">
         <v>211.6522236065632</v>
@@ -32415,16 +32415,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S19" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,49 +32461,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K20" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L20" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N20" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O20" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946994</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q20" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R20" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U20" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,46 +32540,46 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H21" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I21" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K21" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L21" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724848</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O21" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P21" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q21" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R21" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T21" t="n">
-        <v>7.199258779361492</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32619,49 +32619,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H22" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I22" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J22" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K22" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L22" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M22" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O22" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P22" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q22" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S22" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351817</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,49 +32698,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K23" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L23" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N23" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O23" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946994</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q23" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R23" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U23" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32777,46 +32777,46 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H24" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I24" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K24" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L24" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724848</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O24" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P24" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q24" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R24" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T24" t="n">
-        <v>7.199258779361492</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32856,49 +32856,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H25" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I25" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J25" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K25" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L25" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M25" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O25" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P25" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q25" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S25" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351817</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,16 +32935,16 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K26" t="n">
         <v>424.6341946041488</v>
@@ -32953,7 +32953,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N26" t="n">
         <v>595.6470695927186</v>
@@ -32962,7 +32962,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q26" t="n">
         <v>360.4902833647496</v>
@@ -32971,7 +32971,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33014,7 +33014,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H27" t="n">
         <v>17.25001940386726</v>
@@ -33023,7 +33023,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K27" t="n">
         <v>288.4168775622982</v>
@@ -33032,10 +33032,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O27" t="n">
         <v>424.9599466855526</v>
@@ -33050,10 +33050,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T27" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33114,7 +33114,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O28" t="n">
         <v>211.6522236065632</v>
@@ -33126,16 +33126,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33409,16 +33409,16 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K32" t="n">
         <v>424.6341946041488</v>
@@ -33427,7 +33427,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N32" t="n">
         <v>595.6470695927186</v>
@@ -33436,7 +33436,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q32" t="n">
         <v>360.4902833647496</v>
@@ -33445,7 +33445,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33488,7 +33488,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H33" t="n">
         <v>17.25001940386726</v>
@@ -33497,7 +33497,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K33" t="n">
         <v>288.4168775622982</v>
@@ -33506,10 +33506,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O33" t="n">
         <v>424.9599466855526</v>
@@ -33524,10 +33524,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T33" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33588,7 +33588,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O34" t="n">
         <v>211.6522236065632</v>
@@ -33600,16 +33600,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -34120,16 +34120,16 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K41" t="n">
         <v>424.6341946041488</v>
@@ -34138,7 +34138,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N41" t="n">
         <v>595.6470695927186</v>
@@ -34147,7 +34147,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q41" t="n">
         <v>360.4902833647496</v>
@@ -34156,7 +34156,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34199,7 +34199,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H42" t="n">
         <v>17.25001940386726</v>
@@ -34208,7 +34208,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K42" t="n">
         <v>288.4168775622982</v>
@@ -34217,10 +34217,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O42" t="n">
         <v>424.9599466855526</v>
@@ -34235,10 +34235,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T42" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34299,7 +34299,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O43" t="n">
         <v>211.6522236065632</v>
@@ -34311,16 +34311,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,16 +34357,16 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K44" t="n">
         <v>424.6341946041488</v>
@@ -34375,7 +34375,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N44" t="n">
         <v>595.6470695927186</v>
@@ -34384,7 +34384,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q44" t="n">
         <v>360.4902833647496</v>
@@ -34393,7 +34393,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34436,7 +34436,7 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H45" t="n">
         <v>17.25001940386726</v>
@@ -34445,7 +34445,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K45" t="n">
         <v>288.4168775622982</v>
@@ -34454,10 +34454,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O45" t="n">
         <v>424.9599466855526</v>
@@ -34472,10 +34472,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T45" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34536,7 +34536,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N46" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O46" t="n">
         <v>211.6522236065632</v>
@@ -34548,16 +34548,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R46" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34696,19 +34696,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K2" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34775,7 +34775,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.01733575770692</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34787,16 +34787,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
-        <v>325.1459203262118</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34933,19 +34933,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K5" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35012,7 +35012,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770692</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35024,13 +35024,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
         <v>54.37527471535621</v>
@@ -35249,13 +35249,13 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031298</v>
+        <v>138.389756104752</v>
       </c>
       <c r="L9" t="n">
-        <v>365.2844632307152</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
         <v>529.4413268262938</v>
@@ -35410,13 +35410,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L11" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N11" t="n">
         <v>803.5809304081118</v>
@@ -35431,7 +35431,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,25 +35486,25 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K12" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L12" t="n">
-        <v>345.2951542341714</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M12" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N12" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O12" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P12" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q12" t="n">
         <v>298.0903205209232</v>
@@ -35565,10 +35565,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L13" t="n">
         <v>250.2141868799285</v>
@@ -35580,13 +35580,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,31 +35644,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
-        <v>528.6897561303329</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L14" t="n">
-        <v>708.6910667109071</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221125</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N14" t="n">
-        <v>803.5809304081117</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O14" t="n">
-        <v>713.1546070951471</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P14" t="n">
-        <v>570.6060255109122</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q14" t="n">
-        <v>350.4995841502047</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349805</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,28 +35723,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>41.91017895490663</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K15" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L15" t="n">
-        <v>425.9753597058701</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M15" t="n">
-        <v>310.4243770504661</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N15" t="n">
-        <v>333.1945733980127</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O15" t="n">
-        <v>676.2260215178376</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P15" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q15" t="n">
-        <v>88.01303278507407</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.5077701655655</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L16" t="n">
         <v>250.2141868799285</v>
       </c>
       <c r="M16" t="n">
-        <v>274.3098411789724</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N16" t="n">
         <v>273.2768778056036</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187472</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35884,13 +35884,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L17" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N17" t="n">
         <v>803.5809304081118</v>
@@ -35905,7 +35905,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,22 +35960,22 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>41.91017895490668</v>
+        <v>137.9476282330538</v>
       </c>
       <c r="K18" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L18" t="n">
-        <v>345.2951542341712</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M18" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N18" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O18" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P18" t="n">
         <v>525.5561835714618</v>
@@ -36039,10 +36039,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L19" t="n">
         <v>250.2141868799285</v>
@@ -36054,13 +36054,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36118,31 +36118,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>271.378021941508</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L20" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N20" t="n">
-        <v>803.5809304081121</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O20" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P20" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q20" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349816</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,28 +36197,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>168.0012142953156</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K21" t="n">
-        <v>415.0406756005179</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L21" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504664</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1945733980131</v>
+        <v>756.5322523145245</v>
       </c>
       <c r="O21" t="n">
-        <v>282.3637022411083</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P21" t="n">
-        <v>495.5025975091992</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q21" t="n">
-        <v>298.0903205209233</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,28 +36276,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556556</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L22" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M22" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N22" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187479</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36355,31 +36355,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>271.378021941508</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L23" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N23" t="n">
-        <v>803.5809304081121</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O23" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P23" t="n">
-        <v>570.6060255109105</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q23" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349816</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,28 +36434,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>168.0012142953156</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K24" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L24" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N24" t="n">
-        <v>333.1945733980131</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O24" t="n">
-        <v>282.3637022411083</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P24" t="n">
-        <v>495.5025975091992</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q24" t="n">
-        <v>298.0903205209233</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36528,10 +36528,10 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O25" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P25" t="n">
-        <v>246.5154907414415</v>
+        <v>246.5154907414414</v>
       </c>
       <c r="Q25" t="n">
         <v>107.3575901015154</v>
@@ -36595,13 +36595,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L26" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N26" t="n">
         <v>803.5809304081118</v>
@@ -36616,7 +36616,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36680,22 +36680,22 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N27" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O27" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P27" t="n">
-        <v>495.5025975091999</v>
+        <v>484.7652115523313</v>
       </c>
       <c r="Q27" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,7 +36750,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>80.63966029520616</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K28" t="n">
         <v>219.8343186595512</v>
@@ -36853,7 +36853,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,13 +36908,13 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K30" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L30" t="n">
-        <v>345.2951542341714</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M30" t="n">
         <v>310.4243770504662</v>
@@ -36926,13 +36926,13 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P30" t="n">
-        <v>525.5561835714618</v>
+        <v>484.7652115523313</v>
       </c>
       <c r="Q30" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,7 +36987,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>80.63966029520614</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K31" t="n">
         <v>219.8343186595512</v>
@@ -36999,7 +36999,7 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N31" t="n">
-        <v>341.4087679352442</v>
+        <v>341.4087679352443</v>
       </c>
       <c r="O31" t="n">
         <v>304.3692416502435</v>
@@ -37069,13 +37069,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L32" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N32" t="n">
         <v>803.5809304081118</v>
@@ -37090,7 +37090,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.8253897034981</v>
+        <v>59.8253897034995</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,31 +37145,31 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K33" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L33" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M33" t="n">
-        <v>776.1294408004662</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N33" t="n">
-        <v>756.5322523145245</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O33" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P33" t="n">
-        <v>207.0934149315247</v>
+        <v>484.7652115523313</v>
       </c>
       <c r="Q33" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>80.63966029520616</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K34" t="n">
         <v>219.8343186595512</v>
@@ -37327,7 +37327,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37388,7 +37388,7 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L36" t="n">
-        <v>537.6668875337</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M36" t="n">
         <v>310.4243770504662</v>
@@ -37400,13 +37400,13 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P36" t="n">
-        <v>207.0934149315246</v>
+        <v>484.7652115523313</v>
       </c>
       <c r="Q36" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,13 +37461,13 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>80.63966029520617</v>
+        <v>80.63966029520613</v>
       </c>
       <c r="K37" t="n">
         <v>219.8343186595512</v>
       </c>
       <c r="L37" t="n">
-        <v>318.3460770095692</v>
+        <v>318.3460770095691</v>
       </c>
       <c r="M37" t="n">
         <v>342.4417313086132</v>
@@ -37479,7 +37479,7 @@
         <v>304.3692416502435</v>
       </c>
       <c r="P37" t="n">
-        <v>246.5154907414414</v>
+        <v>246.5154907414413</v>
       </c>
       <c r="Q37" t="n">
         <v>107.3575901015154</v>
@@ -37558,7 +37558,7 @@
         <v>713.1546070951472</v>
       </c>
       <c r="P38" t="n">
-        <v>570.6060255109137</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q38" t="n">
         <v>350.4995841502048</v>
@@ -37625,7 +37625,7 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L39" t="n">
-        <v>537.6668875337</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M39" t="n">
         <v>310.4243770504662</v>
@@ -37637,13 +37637,13 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P39" t="n">
-        <v>207.0934149315246</v>
+        <v>484.7652115523313</v>
       </c>
       <c r="Q39" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37710,7 +37710,7 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N40" t="n">
-        <v>341.4087679352442</v>
+        <v>341.4087679352443</v>
       </c>
       <c r="O40" t="n">
         <v>304.3692416502435</v>
@@ -37780,13 +37780,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L41" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N41" t="n">
         <v>803.5809304081118</v>
@@ -37801,7 +37801,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37865,22 +37865,22 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N42" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O42" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P42" t="n">
-        <v>495.5025975091999</v>
+        <v>484.7652115523313</v>
       </c>
       <c r="Q42" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>80.63966029520616</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K43" t="n">
         <v>219.8343186595512</v>
@@ -38017,13 +38017,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L44" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N44" t="n">
         <v>803.5809304081118</v>
@@ -38038,7 +38038,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38102,22 +38102,22 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M45" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N45" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O45" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P45" t="n">
-        <v>495.5025975091999</v>
+        <v>484.7652115523313</v>
       </c>
       <c r="Q45" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>80.6396602952062</v>
+        <v>80.63966029520621</v>
       </c>
       <c r="K46" t="n">
         <v>219.8343186595512</v>
@@ -38187,7 +38187,7 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O46" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P46" t="n">
         <v>246.5154907414415</v>
